--- a/medicine/Psychotrope/Samuel_Whitbread_(1720-1796)/Samuel_Whitbread_(1720-1796).xlsx
+++ b/medicine/Psychotrope/Samuel_Whitbread_(1720-1796)/Samuel_Whitbread_(1720-1796).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Samuel Whitbread (30 août 1720 – 11 juin 1796)[1], est le fondateur de la société Whitbread et un membre de la Chambre des communes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samuel Whitbread (30 août 1720 – 11 juin 1796), est le fondateur de la société Whitbread et un membre de la Chambre des communes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Whitbread est né en 1720 à Cardington (Bedfordshire). Fils d'un yeoman, il est mis en apprentissage chez un brasseur de Londres à l'âge de seize ans. En 1742, il fonde avec Thomas Shewell sa propre brasserie et crée en 1750 dans Chiswell Street (Londres), la première brasserie destinée à la production de masse au Royaume-Uni.
 Il est membre de la Chambre des communes du Royaume-Uni de 1768 à 1790 où il se montra favorable à l'interdiction du commerce des esclaves.
